--- a/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2019-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2019-model-k-10-old-configuration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Row</t>
   </si>
@@ -25,6 +25,45 @@
   </si>
   <si>
     <t>neural_network</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
   </si>
   <si>
     <t>RMSE</t>
@@ -94,10 +133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="true"/>
+    <col min="1" max="1" width="15.28515625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
@@ -110,118 +149,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0">
-        <v>4.044621930463153</v>
+        <v>4.037626131366113</v>
       </c>
       <c r="C2" s="0">
-        <v>0.29833884135307787</v>
+        <v>0.2978228181912515</v>
       </c>
       <c r="D2" s="0">
-        <v>3.193713705851323</v>
+        <v>3.2223005063056425</v>
       </c>
       <c r="E2" s="0">
-        <v>0.31294082667448303</v>
+        <v>0.31185920379413629</v>
       </c>
       <c r="F2" s="0">
-        <v>0.55941114278720172</v>
+        <v>0.55844355470731</v>
       </c>
       <c r="G2" s="0">
-        <v>0.52142327484090112</v>
+        <v>0.52609051319817945</v>
       </c>
       <c r="H2" s="0">
-        <v>0.68705917332551691</v>
+        <v>0.68814079620586366</v>
       </c>
       <c r="I2" s="0">
-        <v>0.83745666375551409</v>
+        <v>0.84187762369780006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0">
-        <v>4.0984578066677093</v>
+        <v>4.3135270726604054</v>
       </c>
       <c r="C3" s="0">
-        <v>0.30230987578008445</v>
+        <v>0.31817378512193251</v>
       </c>
       <c r="D3" s="0">
-        <v>3.2569016011243517</v>
+        <v>3.3451288442955018</v>
       </c>
       <c r="E3" s="0">
-        <v>0.3213270579275036</v>
+        <v>0.35593559144146103</v>
       </c>
       <c r="F3" s="0">
-        <v>0.56685717595131813</v>
+        <v>0.59660337867083946</v>
       </c>
       <c r="G3" s="0">
-        <v>0.53173967835045866</v>
+        <v>0.54614414359109698</v>
       </c>
       <c r="H3" s="0">
-        <v>0.6786729420724964</v>
+        <v>0.64406440855853897</v>
       </c>
       <c r="I3" s="0">
-        <v>0.8342903697876809</v>
+        <v>0.80786161282634184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0">
-        <v>4.2695183662988585</v>
+        <v>3.9220981055519366</v>
       </c>
       <c r="C4" s="0">
-        <v>0.31492762103266042</v>
+        <v>0.28930125598895612</v>
       </c>
       <c r="D4" s="0">
-        <v>3.426372565783101</v>
+        <v>3.1808095866540169</v>
       </c>
       <c r="E4" s="0">
-        <v>0.34870978414700693</v>
+        <v>0.29426815493798358</v>
       </c>
       <c r="F4" s="0">
-        <v>0.59051654011298182</v>
+        <v>0.54246488820750749</v>
       </c>
       <c r="G4" s="0">
-        <v>0.55940844065088424</v>
+        <v>0.51931647732850394</v>
       </c>
       <c r="H4" s="0">
-        <v>0.65129021585299307</v>
+        <v>0.70573184506201647</v>
       </c>
       <c r="I4" s="0">
-        <v>0.81413183004443823</v>
+        <v>0.84473996285894271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4.0021211109877983</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.29520390180697753</v>
+      </c>
+      <c r="D5" s="0">
+        <v>3.1078516135057463</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.30639862695812736</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.55353285987204714</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.50740495713963174</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.69360137304187264</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0.84623167537412658</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2019-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2019-model-k-10-old-configuration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Row</t>
   </si>
@@ -25,6 +25,45 @@
   </si>
   <si>
     <t>neural_network</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
   </si>
   <si>
     <t>RMSE</t>
@@ -149,123 +188,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0">
-        <v>4.037626131366113</v>
+        <v>4.1412002856448709</v>
       </c>
       <c r="C2" s="0">
-        <v>0.2978228181912515</v>
+        <v>0.30546264058080946</v>
       </c>
       <c r="D2" s="0">
-        <v>3.2223005063056425</v>
+        <v>3.3292254131338739</v>
       </c>
       <c r="E2" s="0">
-        <v>0.31185920379413629</v>
+        <v>0.32806419305964213</v>
       </c>
       <c r="F2" s="0">
-        <v>0.55844355470731</v>
+        <v>0.57276888276131244</v>
       </c>
       <c r="G2" s="0">
-        <v>0.52609051319817945</v>
+        <v>0.54354766190198689</v>
       </c>
       <c r="H2" s="0">
-        <v>0.68814079620586366</v>
+        <v>0.67193580694035782</v>
       </c>
       <c r="I2" s="0">
-        <v>0.84187762369780006</v>
+        <v>0.83880020743338546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0">
-        <v>4.3135270726604054</v>
+        <v>4.485909705210414</v>
       </c>
       <c r="C3" s="0">
-        <v>0.31817378512193251</v>
+        <v>0.33088904893361681</v>
       </c>
       <c r="D3" s="0">
-        <v>3.3451288442955018</v>
+        <v>3.5058552321211351</v>
       </c>
       <c r="E3" s="0">
-        <v>0.35593559144146103</v>
+        <v>0.38495274078378017</v>
       </c>
       <c r="F3" s="0">
-        <v>0.59660337867083946</v>
+        <v>0.62044559856910919</v>
       </c>
       <c r="G3" s="0">
-        <v>0.54614414359109698</v>
+        <v>0.57238521815574739</v>
       </c>
       <c r="H3" s="0">
-        <v>0.64406440855853897</v>
+        <v>0.61504725921621983</v>
       </c>
       <c r="I3" s="0">
-        <v>0.80786161282634184</v>
+        <v>0.78743246347649398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0">
-        <v>3.9220981055519366</v>
+        <v>3.8997687768617166</v>
       </c>
       <c r="C4" s="0">
-        <v>0.28930125598895612</v>
+        <v>0.28765420314590595</v>
       </c>
       <c r="D4" s="0">
-        <v>3.1808095866540169</v>
+        <v>3.1808261499344175</v>
       </c>
       <c r="E4" s="0">
-        <v>0.29426815493798358</v>
+        <v>0.29092703206125475</v>
       </c>
       <c r="F4" s="0">
-        <v>0.54246488820750749</v>
+        <v>0.53937652160735983</v>
       </c>
       <c r="G4" s="0">
-        <v>0.51931647732850394</v>
+        <v>0.51931918154081091</v>
       </c>
       <c r="H4" s="0">
-        <v>0.70573184506201647</v>
+        <v>0.7090729679387453</v>
       </c>
       <c r="I4" s="0">
-        <v>0.84473996285894271</v>
+        <v>0.86010400609229887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0">
         <v>4.0021211109877983</v>
